--- a/SpaDES functions.xlsx
+++ b/SpaDES functions.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -292,10 +297,30 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -309,7 +334,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -317,12 +342,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,1051 +715,1514 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="7" customFormat="1">
+      <c r="A1" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J1" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
+    <row r="2" spans="1:10" s="9" customFormat="1">
+      <c r="A2" s="8"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
         <v>0.5</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
         <v>0.5</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
         <v>0.5</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
         <v>0.5</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
         <v>0.5</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
         <v>0.5</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
         <v>0.5</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
         <v>0.5</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
         <v>0.5</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
         <v>0.95</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>0.95</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>0.3</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
         <v>0.7</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>0.3</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>0.3</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
         <v>0.9</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>0.95</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>0.3</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
         <v>0.5</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
         <v>0.75</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
         <v>0.95</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
         <v>0.95</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
         <v>0.95</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
         <v>0.95</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
         <v>0.95</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>0.8</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>0.3</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
         <v>0.7</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>0.8</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <v>0.4</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
         <v>0.95</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>0.95</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="1">
         <v>0.4</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="1">
         <v>0.3</v>
       </c>
-      <c r="I48" t="s">
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:10">
+      <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1">
+        <v>1</v>
+      </c>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="10">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup scale="86" fitToHeight="2" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1678,9 +2232,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1690,8 +2249,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>